--- a/data/trans_camb/P15_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15_3-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,82</t>
+          <t>16,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,32</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,59</t>
+          <t>23,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,05</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,26</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>12,29</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>19,91</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>31,77</t>
+          <t>19,88</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,48</t>
+          <t>-5,82; 6,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 21,84</t>
+          <t>6,83; 23,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 23,38</t>
+          <t>7,1; 25,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,23; 41,33</t>
+          <t>-4,88; 6,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 7,25</t>
+          <t>3,86; 16,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 17,15</t>
+          <t>15,84; 32,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,88; 34,46</t>
+          <t>-3,71; 4,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,75; 42,22</t>
+          <t>7,43; 17,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 4,85</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,1; 17,75</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>13,44; 26,53</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>24,49; 39,65</t>
+          <t>14,52; 26,58</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>175,17%</t>
+          <t>180,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>185,28%</t>
+          <t>200,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>391,62%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>157,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>157,82%</t>
+          <t>354,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>373,37%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>480,7%</t>
+          <t>169,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>166,36%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>269,54%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>430,02%</t>
+          <t>269,15%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,23; 105,22</t>
+          <t>-56,61; 126,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,98; 408,2</t>
+          <t>59,72; 440,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,31; 437,97</t>
+          <t>67,54; 489,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>187,33; 800,95</t>
+          <t>-54,13; 166,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,35; 174,28</t>
+          <t>29,38; 433,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,05; 439,55</t>
+          <t>146,62; 833,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>158,76; 836,71</t>
+          <t>-41,18; 74,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>217,05; 1009,56</t>
+          <t>82,29; 341,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 81,38</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>70,07; 309,64</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>132,07; 475,0</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>250,41; 707,87</t>
+          <t>144,74; 485,4</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,31</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,44</t>
+          <t>24,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,83</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>14,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>28,46</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,84</t>
+          <t>13,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,84</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>26,29</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>43,82</t>
+          <t>26,13</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,88</t>
+          <t>-3,86; 2,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 19,34</t>
+          <t>7,83; 19,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,31; 31,94</t>
+          <t>17,08; 31,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,13; 53,39</t>
+          <t>-7,57; 0,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 0,02</t>
+          <t>8,4; 20,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 20,82</t>
+          <t>20,98; 34,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,49; 35,16</t>
+          <t>-4,43; 0,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,64; 52,86</t>
+          <t>9,77; 18,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 0,59</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>9,57; 18,19</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>21,39; 31,22</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>36,76; 50,82</t>
+          <t>20,88; 31,12</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,92%</t>
+          <t>-21,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>403,09%</t>
+          <t>400,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>740,06%</t>
+          <t>731,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1296,9%</t>
+          <t>-65,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-64,29%</t>
+          <t>285,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>287,28%</t>
+          <t>565,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>565,4%</t>
+          <t>-47,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>891,2%</t>
+          <t>333,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-45,39%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>335,1%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>636,42%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>1060,63%</t>
+          <t>632,47%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,45; 194,53</t>
+          <t>-79,78; 214,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>119,72; 1117,46</t>
+          <t>137,62; 1227,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>298,08; 1998,87</t>
+          <t>276,43; 1786,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>506,07; 3008,75</t>
+          <t>-93,6; 51,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-93,8; 26,1</t>
+          <t>93,27; 711,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,96; 740,26</t>
+          <t>224,65; 1189,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>243,68; 1248,44</t>
+          <t>-79,17; 33,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>419,32; 1867,66</t>
+          <t>162,91; 639,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-79,85; 25,95</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>149,87; 657,44</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>361,53; 1198,69</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>605,12; 1932,95</t>
+          <t>335,17; 1129,6</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,37</t>
+          <t>20,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,84</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>12,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>22,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,33</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37,46</t>
+          <t>12,31</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>12,0</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>21,41</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>33,25</t>
+          <t>21,84</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,96</t>
+          <t>-3,89; 3,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,04; 16,92</t>
+          <t>7,29; 17,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,05; 26,51</t>
+          <t>15,1; 27,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,51; 37,08</t>
+          <t>-4,39; 5,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 5,21</t>
+          <t>7,44; 18,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 17,61</t>
+          <t>16,45; 28,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,41; 27,76</t>
+          <t>-2,99; 3,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,29; 44,55</t>
+          <t>8,77; 16,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 3,02</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>7,8; 15,44</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>17,17; 26,14</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>27,68; 38,53</t>
+          <t>17,22; 26,07</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,36%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>221,88%</t>
+          <t>228,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>390,11%</t>
+          <t>400,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>571,39%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>118,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>115,4%</t>
+          <t>211,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>208,96%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>350,54%</t>
+          <t>154,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-3,17%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>150,2%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>267,92%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>416,15%</t>
+          <t>273,29%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,83; 98,43</t>
+          <t>-59,08; 109,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,23; 523,5</t>
+          <t>89,19; 510,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>191,5; 797,24</t>
+          <t>194,4; 762,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>304,98; 1175,12</t>
+          <t>-35,31; 70,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 61,85</t>
+          <t>52,99; 219,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,63; 210,52</t>
+          <t>114,32; 337,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>120,43; 342,69</t>
+          <t>-31,66; 50,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>232,38; 562,2</t>
+          <t>88,77; 247,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,51; 47,23</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>78,6; 238,43</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>168,92; 417,89</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>278,19; 587,86</t>
+          <t>174,09; 406,83</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>10,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,21</t>
+          <t>19,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,87</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>23,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,24</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>40,12</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>10,77</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>21,28</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>39,54</t>
+          <t>21,22</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -0,12</t>
+          <t>-8,61; -0,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 16,74</t>
+          <t>5,3; 16,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,05; 25,9</t>
+          <t>12,68; 25,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,08; 46,27</t>
+          <t>-5,61; 2,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 2,21</t>
+          <t>5,69; 15,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 16,24</t>
+          <t>17,73; 29,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,68; 28,87</t>
+          <t>-6,27; -0,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,6; 46,51</t>
+          <t>7,01; 14,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,96; -0,37</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 14,7</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>17,15; 25,44</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>34,25; 45,48</t>
+          <t>17,2; 25,31</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-46,92%</t>
+          <t>-46,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>111,65%</t>
+          <t>110,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>202,61%</t>
+          <t>203,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>410,04%</t>
+          <t>-22,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-23,75%</t>
+          <t>138,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>137,79%</t>
+          <t>291,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>293,59%</t>
+          <t>-35,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>506,81%</t>
+          <t>123,95%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-35,87%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>124,38%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>245,71%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>456,59%</t>
+          <t>244,96%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,18; 0,56</t>
+          <t>-72,37; -0,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>39,8; 254,31</t>
+          <t>39,11; 217,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>105,21; 360,99</t>
+          <t>106,28; 367,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>247,6; 636,21</t>
+          <t>-56,78; 43,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,28; 40,41</t>
+          <t>53,24; 268,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,29; 287,9</t>
+          <t>167,49; 489,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>173,07; 518,67</t>
+          <t>-58,68; -3,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>327,43; 782,5</t>
+          <t>66,57; 205,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,0; -3,76</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>65,69; 207,8</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>165,43; 374,54</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>330,37; 650,49</t>
+          <t>163,92; 362,41</t>
         </is>
       </c>
     </row>
@@ -1760,62 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15,39</t>
+          <t>15,7</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,61</t>
+          <t>25,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35,77</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,41</t>
+          <t>26,29</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>26,03</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>39,42</t>
+          <t>14,58</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>14,41</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>25,86</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>37,74</t>
+          <t>26,13</t>
         </is>
       </c>
     </row>
@@ -1828,62 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,72</t>
+          <t>-3,98; 3,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,53; 21,39</t>
+          <t>9,97; 21,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,49; 31,75</t>
+          <t>19,53; 32,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27,37; 43,99</t>
+          <t>-6,28; 2,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 4,76</t>
+          <t>7,69; 19,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,45; 19,59</t>
+          <t>19,68; 32,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,13; 32,83</t>
+          <t>-3,98; 2,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>31,8; 46,78</t>
+          <t>10,68; 18,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 2,53</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>10,27; 18,51</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>21,23; 30,67</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>32,33; 42,48</t>
+          <t>21,69; 30,74</t>
         </is>
       </c>
     </row>
@@ -1896,62 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>-5,37%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>296,62%</t>
+          <t>302,69%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>493,64%</t>
+          <t>498,83%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>689,56%</t>
+          <t>-25,17%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-16,06%</t>
+          <t>176,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>176,47%</t>
+          <t>345,87%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>342,45%</t>
+          <t>-16,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>518,62%</t>
+          <t>228,44%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-12,28%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>225,79%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>405,09%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>591,37%</t>
+          <t>409,29%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 114,97</t>
+          <t>-61,07; 120,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>123,79; 612,32</t>
+          <t>128,27; 730,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>239,32; 984,82</t>
+          <t>232,86; 967,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>355,61; 1363,4</t>
+          <t>-64,67; 66,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-64,26; 90,2</t>
+          <t>67,37; 376,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>53,61; 346,29</t>
+          <t>178,45; 630,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>183,63; 627,53</t>
+          <t>-49,1; 47,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>304,21; 933,54</t>
+          <t>120,86; 384,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-50,52; 51,86</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>124,7; 374,61</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>260,81; 635,67</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>397,72; 887,93</t>
+          <t>253,83; 634,29</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>28,85</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>17,7</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>17,48</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>32,06</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>8,3</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>17,23</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>30,7</t>
+          <t>17,51</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 9,91</t>
+          <t>-3,92; 10,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,43; 13,37</t>
+          <t>0,83; 12,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10,01; 24,15</t>
+          <t>10,86; 24,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>20,39; 38,33</t>
+          <t>-4,39; 2,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 1,77</t>
+          <t>5,05; 14,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,86; 15,13</t>
+          <t>11,85; 23,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,29; 23,43</t>
+          <t>-3,25; 3,72</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>23,66; 41,23</t>
+          <t>4,92; 12,92</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,23</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 12,76</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>12,53; 21,85</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>24,49; 37,4</t>
+          <t>13,59; 22,48</t>
         </is>
       </c>
     </row>
@@ -2172,62 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>101,7%</t>
+          <t>102,67%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>272,69%</t>
+          <t>278,38%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>465,9%</t>
+          <t>-21,61%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-32,2%</t>
+          <t>209,48%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>205,67%</t>
+          <t>370,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>366,11%</t>
+          <t>-5,55%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>671,69%</t>
+          <t>156,69%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>154,3%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>320,18%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>570,48%</t>
+          <t>325,39%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 241,76</t>
+          <t>-56,05; 232,91</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,5; 330,93</t>
+          <t>2,87; 332,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>109,73; 570,02</t>
+          <t>117,4; 594,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>226,74; 959,38</t>
+          <t>-68,83; 88,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-75,5; 74,06</t>
+          <t>72,68; 467,35</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>60,7; 479,95</t>
+          <t>168,33; 750,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>155,24; 719,76</t>
+          <t>-50,84; 96,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>333,94; 1254,53</t>
+          <t>70,7; 332,23</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 81,01</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>64,35; 324,68</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>172,58; 544,45</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>346,13; 921,06</t>
+          <t>182,41; 585,49</t>
         </is>
       </c>
     </row>
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>11,94</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>20,24</t>
+          <t>20,56</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>34,66</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>23,32</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>23,39</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>37,51</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>11,82</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>21,85</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>36,08</t>
+          <t>21,97</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,93</t>
+          <t>-2,96; 1,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,38; 14,29</t>
+          <t>9,47; 14,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>17,44; 22,97</t>
+          <t>17,66; 23,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>31,32; 38,64</t>
+          <t>-2,98; 0,69</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,8</t>
+          <t>9,73; 14,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,42; 14,16</t>
+          <t>20,68; 25,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,42; 26,07</t>
+          <t>-2,16; 0,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>33,87; 40,94</t>
+          <t>10,28; 13,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,33</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>10,11; 13,53</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>19,92; 23,89</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>33,49; 38,66</t>
+          <t>20,07; 23,82</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-17,69%</t>
+          <t>-14,51%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>188,51%</t>
+          <t>190,83%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>323,37%</t>
+          <t>328,58%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>553,83%</t>
+          <t>-14,88%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-14,8%</t>
+          <t>165,63%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>164,37%</t>
+          <t>323,89%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>324,86%</t>
+          <t>-14,71%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>520,96%</t>
+          <t>177,06%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>175,32%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>324,19%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>535,3%</t>
+          <t>326,02%</t>
         </is>
       </c>
     </row>
@@ -2516,76 +2087,68 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 18,32</t>
+          <t>-40,86; 19,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>132,26; 270,66</t>
+          <t>126,79; 266,56</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>243,56; 434,84</t>
+          <t>241,76; 432,01</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>427,02; 723,11</t>
+          <t>-36,36; 11,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 13,09</t>
+          <t>120,82; 231,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>113,99; 225,69</t>
+          <t>250,57; 424,45</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>250,17; 423,51</t>
+          <t>-30,51; 5,58</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>410,71; 658,09</t>
+          <t>140,27; 225,61</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 5,52</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>137,46; 218,31</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>267,11; 389,84</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>445,61; 638,15</t>
+          <t>269,84; 389,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
